--- a/STORE_model/ML_model/data/10CC_shading_230302025.xlsx
+++ b/STORE_model/ML_model/data/10CC_shading_230302025.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oweisberg\Documents\GitHub\recycle_model\STORE_model\ML_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123009F-7542-455D-B3A1-3B1D6858A514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD559F4A-A078-41CD-93F9-5F2AF8A8146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="het growth" sheetId="1" r:id="rId1"/>
     <sheet name="FL" sheetId="2" r:id="rId2"/>
-    <sheet name="HET concentrations" sheetId="3" r:id="rId3"/>
-    <sheet name="experiment plan" sheetId="5" r:id="rId4"/>
-    <sheet name="starter FCM" sheetId="4" r:id="rId5"/>
+    <sheet name="stats" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="HET concentrations" sheetId="3" r:id="rId5"/>
+    <sheet name="experiment plan" sheetId="5" r:id="rId6"/>
+    <sheet name="starter FCM" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
   <si>
     <t>1A3</t>
   </si>
@@ -367,18 +369,267 @@
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>HET concentration binned</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>% of drop in FL as function of HET concentration</t>
+  </si>
+  <si>
+    <t>1e5 - 1e6</t>
+  </si>
+  <si>
+    <t>1e6 - 5e6</t>
+  </si>
+  <si>
+    <t>5e6 - 1e7</t>
+  </si>
+  <si>
+    <t>1e7 - 5e7</t>
+  </si>
+  <si>
+    <t>5e7 - 1e8</t>
+  </si>
+  <si>
+    <t>1e8 - 5e8</t>
+  </si>
+  <si>
+    <t>concentration binned 2</t>
+  </si>
+  <si>
+    <t>1e5\n5e6</t>
+  </si>
+  <si>
+    <t>5e6\n5e7</t>
+  </si>
+  <si>
+    <t>5e7\n5e8</t>
+  </si>
+  <si>
+    <t>1e5 - 5e6</t>
+  </si>
+  <si>
+    <t>5e6 - 5e7</t>
+  </si>
+  <si>
+    <t>5e7 - 5e8</t>
+  </si>
+  <si>
+    <t>HET concentration</t>
+  </si>
+  <si>
+    <t>FL drop</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative FL </t>
+  </si>
+  <si>
+    <r>
+      <t>HET addition cell ml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>7.05±0.5</t>
+  </si>
+  <si>
+    <t>100%±8%</t>
+  </si>
+  <si>
+    <t>1.9e6±1.4e6</t>
+  </si>
+  <si>
+    <t>6.94±0.5</t>
+  </si>
+  <si>
+    <t>78%±8%</t>
+  </si>
+  <si>
+    <t>2.0e7±1.4e7</t>
+  </si>
+  <si>
+    <t>5.42±0.5</t>
+  </si>
+  <si>
+    <t>28%±8%</t>
+  </si>
+  <si>
+    <t>1.7e8±1.3e8</t>
+  </si>
+  <si>
+    <t>1.95±0.7</t>
+  </si>
+  <si>
+    <t>Relative PRO cell ml-1</t>
+  </si>
+  <si>
+    <t>HET concentration binned 2</t>
+  </si>
+  <si>
+    <r>
+      <t>Relative PRO cell ml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 4*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 4*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>- 4*10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>Heterotrophs cell ml-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +653,90 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -411,7 +746,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -434,13 +769,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -461,11 +945,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B5AFFFFE-845D-4E0C-8187-C6EEAD303259}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,7 +1541,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,6 +2372,968 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDF6F08-6AD7-4C29-8659-1085FBDDCCE2}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="15">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15">
+        <v>20</v>
+      </c>
+      <c r="D5" s="15">
+        <v>15</v>
+      </c>
+      <c r="E5" s="15">
+        <v>20</v>
+      </c>
+      <c r="F5" s="15">
+        <v>15</v>
+      </c>
+      <c r="G5" s="15">
+        <v>20</v>
+      </c>
+      <c r="H5" s="15">
+        <v>15</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="15">
+        <v>55</v>
+      </c>
+      <c r="N5" s="15">
+        <v>35</v>
+      </c>
+      <c r="O5" s="15">
+        <v>35</v>
+      </c>
+      <c r="P5" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1.0103839999999999</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.029453</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.96174499999999996</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.80755500000000002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.74776900000000002</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.26763799999999999</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.29388300000000001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1.0103839999999999</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.000435</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0.78193299999999999</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0.27888600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="17">
+        <v>5.2817999999999997E-2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>7.6243000000000005E-2</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5.4475999999999997E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>5.8083000000000003E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>8.9778999999999998E-2</v>
+      </c>
+      <c r="G7" s="17">
+        <v>8.5750999999999994E-2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>9.5510999999999999E-2</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="17">
+        <v>5.2817999999999997E-2</v>
+      </c>
+      <c r="N7" s="17">
+        <v>7.5008000000000005E-2</v>
+      </c>
+      <c r="O7" s="17">
+        <v>7.8136999999999998E-2</v>
+      </c>
+      <c r="P7" s="17">
+        <v>8.9661000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.92221299999999995</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.94559499999999996</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.89158999999999999</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.70218700000000001</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.61960999999999999</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.191966</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.21071200000000001</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0.92221299999999995</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0.89158999999999999</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0.61960999999999999</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0.191966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.97595299999999996</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.92086699999999999</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.77438799999999997</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.643764</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.21390100000000001</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.22331100000000001</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="M9" s="17">
+        <v>1</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0.95001199999999997</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0.73764700000000005</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0.21734200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.003701</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.94269000000000003</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.821469</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.771957</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.228773</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0.983294</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0.80635999999999997</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0.23472199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.0600290000000001</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1.0091399999999999</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.84562999999999999</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.80846200000000001</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.28528900000000001</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.41471999999999998</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1</v>
+      </c>
+      <c r="N11" s="17">
+        <v>1.0270010000000001</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0.83569599999999999</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0.404752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1.2009570000000001</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.1699710000000001</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1.055493</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.89776800000000001</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.86747200000000002</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.422458</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.43480600000000003</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.2009570000000001</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.1699710000000001</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0.89776800000000001</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0.43480600000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>1868437</v>
+      </c>
+      <c r="O14" s="22">
+        <v>20249670</v>
+      </c>
+      <c r="P14" s="22">
+        <v>171461500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>1420016</v>
+      </c>
+      <c r="O15" s="22">
+        <v>15389790</v>
+      </c>
+      <c r="P15" s="22">
+        <v>130311100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>595708.6</v>
+      </c>
+      <c r="D16" s="25">
+        <v>6456146</v>
+      </c>
+      <c r="E16" s="25">
+        <v>54666580</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="15">
+        <v>7.0533089999999996</v>
+      </c>
+      <c r="N16" s="15">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="O16" s="15">
+        <v>5.4191140000000004</v>
+      </c>
+      <c r="P16" s="15">
+        <v>1.949943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>4007365</v>
+      </c>
+      <c r="D17" s="25">
+        <v>43430860</v>
+      </c>
+      <c r="E17" s="25">
+        <v>367745200</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0.51007800000000003</v>
+      </c>
+      <c r="N17" s="15">
+        <v>0.53086199999999995</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.53102300000000002</v>
+      </c>
+      <c r="P17" s="15">
+        <v>0.68685600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB40150-EDAC-41C4-8E47-67401EC79409}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R8" sqref="M4:R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.0103839999999999</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>7.0533089999999996</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.51007800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="15">
+        <v>35</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1.000435</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1868437</v>
+      </c>
+      <c r="E4" s="24">
+        <v>1420016</v>
+      </c>
+      <c r="F4" s="23">
+        <v>6.9379999999999997</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.53086199999999995</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="15">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.78193299999999999</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20249670</v>
+      </c>
+      <c r="E5" s="24">
+        <v>15389790</v>
+      </c>
+      <c r="F5" s="23">
+        <v>5.4191140000000004</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.53102300000000002</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="50">
+        <v>40</v>
+      </c>
+      <c r="O5" s="51">
+        <v>1</v>
+      </c>
+      <c r="P5" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5" s="50"/>
+    </row>
+    <row r="6" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="15">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.27888600000000002</v>
+      </c>
+      <c r="D6" s="24">
+        <v>171461500</v>
+      </c>
+      <c r="E6" s="24">
+        <v>130311100</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1.949943</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.68685600000000002</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="50">
+        <v>35</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0.998</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" s="50">
+        <v>35</v>
+      </c>
+      <c r="O7" s="52">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="50">
+        <v>35</v>
+      </c>
+      <c r="O8" s="52">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="M12" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="36">
+        <v>40</v>
+      </c>
+      <c r="C13" s="45">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="41">
+        <v>0</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="M13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N13" s="22">
+        <v>55</v>
+      </c>
+      <c r="O13" s="22">
+        <v>35</v>
+      </c>
+      <c r="P13" s="22">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="36">
+        <v>35</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0.998</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="M14" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="22">
+        <v>214082700</v>
+      </c>
+      <c r="O14" s="22">
+        <v>231343000</v>
+      </c>
+      <c r="P14" s="22">
+        <v>227930900</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>191258800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="36">
+        <v>35</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="M15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="22">
+        <v>35758700</v>
+      </c>
+      <c r="O15" s="22">
+        <v>31945540</v>
+      </c>
+      <c r="P15" s="22">
+        <v>31474370</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>26410420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="36">
+        <v>35</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="M16" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="24">
+        <v>158729400</v>
+      </c>
+      <c r="O16" s="24">
+        <v>168383200</v>
+      </c>
+      <c r="P16" s="24">
+        <v>165899700</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>139207900</v>
+      </c>
+    </row>
+    <row r="17" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="24">
+        <v>271410000</v>
+      </c>
+      <c r="O17" s="24">
+        <v>270868300</v>
+      </c>
+      <c r="P17" s="24">
+        <v>266873200</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>223935600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
@@ -2030,7 +3588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF501706-5827-4C11-B2BA-B56659F7F61A}">
   <dimension ref="A3:I13"/>
   <sheetViews>
@@ -2132,11 +3690,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F7DC01-26F1-4AED-A0BB-02C8F7434C2E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
